--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value709.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value709.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.461856126833477</v>
+        <v>1.318185925483704</v>
       </c>
       <c r="B1">
-        <v>2.588431599311154</v>
+        <v>2.540267944335938</v>
       </c>
       <c r="C1">
         <v>-1</v>
       </c>
       <c r="D1">
-        <v>1.43977400978703</v>
+        <v>1.591284871101379</v>
       </c>
       <c r="E1">
-        <v>0.7840576404161078</v>
+        <v>0.9482159614562988</v>
       </c>
     </row>
   </sheetData>
